--- a/отчеты Останкино (поставки)/Останкино_недогрузы/Бердянск.xlsx
+++ b/отчеты Останкино (поставки)/Останкино_недогрузы/Бердянск.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\Останкино_недогрузы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\отчеты Останкино (поставки)\Останкино_недогрузы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51902ABA-085E-469B-AAD3-9AC845BD1ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CDB4B0-9104-47A9-AD5F-0DB226E9AAA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1676,7 +1676,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/отчеты Останкино (поставки)/Останкино_недогрузы/Бердянск.xlsx
+++ b/отчеты Останкино (поставки)/Останкино_недогрузы/Бердянск.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\отчеты Останкино (поставки)\Останкино_недогрузы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F47298-729D-4ED8-9CB9-D85D164970D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11ACECB6-A4A0-417E-AEF8-5E3FA911DDF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1750,7 +1750,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,11 +1853,11 @@
       <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>2</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>3</v>
@@ -2870,12 +2870,12 @@
         <v>0</v>
       </c>
       <c r="F2" s="36">
-        <f>SUM(F3:F180)</f>
-        <v>264</v>
-      </c>
-      <c r="G2" s="36">
         <f t="shared" si="0"/>
         <v>5146</v>
+      </c>
+      <c r="G2" s="36">
+        <f>SUM(G3:G180)</f>
+        <v>264</v>
       </c>
       <c r="H2" s="36">
         <f>SUM(H3:H180)</f>
@@ -4401,7 +4401,7 @@
       <c r="C4">
         <v>60</v>
       </c>
-      <c r="G4">
+      <c r="F4">
         <v>120</v>
       </c>
       <c r="H4">
@@ -7017,7 +7017,7 @@
       <c r="C8">
         <v>320</v>
       </c>
-      <c r="G8">
+      <c r="F8">
         <v>120</v>
       </c>
       <c r="H8">
@@ -8926,7 +8926,7 @@
       <c r="B11" s="39">
         <v>1</v>
       </c>
-      <c r="G11">
+      <c r="F11">
         <v>30</v>
       </c>
       <c r="H11">
@@ -9651,7 +9651,7 @@
       <c r="C12">
         <v>120</v>
       </c>
-      <c r="G12">
+      <c r="F12">
         <v>100</v>
       </c>
       <c r="H12">
@@ -10489,7 +10489,7 @@
       <c r="B13" s="39">
         <v>0.25</v>
       </c>
-      <c r="G13">
+      <c r="F13">
         <v>100</v>
       </c>
       <c r="H13">
@@ -16115,7 +16115,7 @@
       <c r="C22">
         <v>65</v>
       </c>
-      <c r="G22">
+      <c r="F22">
         <v>40</v>
       </c>
       <c r="H22">
@@ -16907,10 +16907,10 @@
         <v>150</v>
       </c>
       <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
         <v>48</v>
-      </c>
-      <c r="G23">
-        <v>50</v>
       </c>
       <c r="I23">
         <v>50</v>
@@ -17678,7 +17678,7 @@
       <c r="B24" s="39">
         <v>0.4</v>
       </c>
-      <c r="G24">
+      <c r="F24">
         <v>60</v>
       </c>
       <c r="H24">
@@ -19097,7 +19097,7 @@
       <c r="B26" s="39">
         <v>0.12</v>
       </c>
-      <c r="G26">
+      <c r="F26">
         <v>50</v>
       </c>
       <c r="H26">
@@ -20368,7 +20368,7 @@
       <c r="B28" s="39">
         <v>0.25</v>
       </c>
-      <c r="G28">
+      <c r="F28">
         <v>224</v>
       </c>
       <c r="H28">
@@ -21858,7 +21858,7 @@
       <c r="B30" s="39">
         <v>0.4</v>
       </c>
-      <c r="G30">
+      <c r="F30">
         <v>100</v>
       </c>
       <c r="H30">
@@ -23248,7 +23248,7 @@
       <c r="C32">
         <v>240</v>
       </c>
-      <c r="G32">
+      <c r="F32">
         <v>60</v>
       </c>
       <c r="H32">
@@ -24070,7 +24070,7 @@
       <c r="C33">
         <v>120</v>
       </c>
-      <c r="G33">
+      <c r="F33">
         <v>64</v>
       </c>
       <c r="H33">
@@ -34668,7 +34668,7 @@
       <c r="C50">
         <v>140</v>
       </c>
-      <c r="G50">
+      <c r="F50">
         <v>48</v>
       </c>
       <c r="H50">
@@ -35738,7 +35738,7 @@
       <c r="B52" s="39">
         <v>0.4</v>
       </c>
-      <c r="G52">
+      <c r="F52">
         <v>320</v>
       </c>
       <c r="H52">
@@ -38212,7 +38212,7 @@
       <c r="C56">
         <v>260</v>
       </c>
-      <c r="G56">
+      <c r="F56">
         <v>100</v>
       </c>
       <c r="H56">
@@ -39070,7 +39070,7 @@
       <c r="B57" s="39">
         <v>0.4</v>
       </c>
-      <c r="G57">
+      <c r="F57">
         <v>360</v>
       </c>
       <c r="H57">
@@ -40101,10 +40101,10 @@
         <v>0.1</v>
       </c>
       <c r="F59">
+        <v>50</v>
+      </c>
+      <c r="G59">
         <v>40</v>
-      </c>
-      <c r="G59">
-        <v>50</v>
       </c>
       <c r="H59">
         <v>10</v>
@@ -43588,7 +43588,7 @@
       <c r="C64">
         <v>130</v>
       </c>
-      <c r="G64">
+      <c r="F64">
         <v>50</v>
       </c>
       <c r="H64">
@@ -44386,7 +44386,7 @@
       <c r="B65" s="39">
         <v>1</v>
       </c>
-      <c r="G65">
+      <c r="F65">
         <v>50</v>
       </c>
       <c r="H65">
@@ -47707,7 +47707,7 @@
       <c r="B70" s="39">
         <v>0.35</v>
       </c>
-      <c r="G70">
+      <c r="F70">
         <v>48</v>
       </c>
       <c r="H70">
@@ -49014,7 +49014,7 @@
       <c r="B72" s="39">
         <v>1</v>
       </c>
-      <c r="G72">
+      <c r="F72">
         <v>50</v>
       </c>
       <c r="H72">
@@ -49346,7 +49346,7 @@
       <c r="B73" s="39">
         <v>0.3</v>
       </c>
-      <c r="G73">
+      <c r="F73">
         <v>100</v>
       </c>
       <c r="H73">
@@ -55130,7 +55130,7 @@
       <c r="B83" s="39">
         <v>0.35</v>
       </c>
-      <c r="G83">
+      <c r="F83">
         <v>360</v>
       </c>
       <c r="H83">
@@ -56699,7 +56699,7 @@
       <c r="C85">
         <v>480</v>
       </c>
-      <c r="G85">
+      <c r="F85">
         <v>280</v>
       </c>
       <c r="H85">
@@ -64238,7 +64238,7 @@
       <c r="B97" s="39">
         <v>0.36</v>
       </c>
-      <c r="G97">
+      <c r="F97">
         <v>100</v>
       </c>
       <c r="H97">
@@ -69936,7 +69936,7 @@
       <c r="B106" s="39">
         <v>0.33</v>
       </c>
-      <c r="G106">
+      <c r="F106">
         <v>80</v>
       </c>
       <c r="H106">
@@ -72232,7 +72232,7 @@
       <c r="B110" s="39">
         <v>0.33</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>24</v>
       </c>
       <c r="I110">
@@ -81827,7 +81827,7 @@
       <c r="B126" s="39">
         <v>1</v>
       </c>
-      <c r="G126">
+      <c r="F126">
         <v>100</v>
       </c>
       <c r="H126">
@@ -86829,7 +86829,7 @@
         <v>-40</v>
       </c>
       <c r="U137" s="42">
-        <f t="shared" ref="U137:U138" si="15">-1*T137*B137</f>
+        <f>-1*T137*B137</f>
         <v>40</v>
       </c>
       <c r="V137" s="41"/>
@@ -86986,7 +86986,7 @@
         <v>-8</v>
       </c>
       <c r="U138" s="42">
-        <f t="shared" si="15"/>
+        <f>-1*T138*B138</f>
         <v>3.2</v>
       </c>
       <c r="V138" s="41"/>
@@ -89413,7 +89413,7 @@
       <c r="C146">
         <v>140</v>
       </c>
-      <c r="G146">
+      <c r="F146">
         <v>350</v>
       </c>
       <c r="H146">
@@ -89737,7 +89737,7 @@
       <c r="C147">
         <v>120</v>
       </c>
-      <c r="G147">
+      <c r="F147">
         <v>50</v>
       </c>
       <c r="H147">
@@ -90057,7 +90057,7 @@
       <c r="C148">
         <v>190</v>
       </c>
-      <c r="G148">
+      <c r="F148">
         <v>100</v>
       </c>
       <c r="H148">
@@ -90587,7 +90587,7 @@
       <c r="B150" s="39">
         <v>0.4</v>
       </c>
-      <c r="G150">
+      <c r="F150">
         <v>300</v>
       </c>
       <c r="H150">
@@ -91471,7 +91471,7 @@
       <c r="B153" s="39">
         <v>0.3</v>
       </c>
-      <c r="G153">
+      <c r="F153">
         <v>50</v>
       </c>
       <c r="H153">
@@ -91707,7 +91707,7 @@
       <c r="B154" s="39">
         <v>0.18</v>
       </c>
-      <c r="G154">
+      <c r="F154">
         <v>50</v>
       </c>
       <c r="H154">
@@ -93710,7 +93710,7 @@
       <c r="C165">
         <v>110</v>
       </c>
-      <c r="G165">
+      <c r="F165">
         <v>200</v>
       </c>
       <c r="H165">
@@ -93967,7 +93967,7 @@
       <c r="B166" s="39">
         <v>1</v>
       </c>
-      <c r="G166">
+      <c r="F166">
         <v>100</v>
       </c>
       <c r="H166">
@@ -94252,7 +94252,7 @@
       <c r="C167">
         <v>310</v>
       </c>
-      <c r="G167">
+      <c r="F167">
         <v>300</v>
       </c>
       <c r="H167">
@@ -94746,7 +94746,7 @@
       <c r="B169" s="39">
         <v>0.3</v>
       </c>
-      <c r="F169">
+      <c r="G169">
         <v>30</v>
       </c>
       <c r="I169">
@@ -95188,7 +95188,7 @@
       <c r="B172" s="39">
         <v>0.18</v>
       </c>
-      <c r="F172">
+      <c r="G172">
         <v>40</v>
       </c>
       <c r="I172">
@@ -95604,7 +95604,7 @@
       <c r="C175">
         <v>140</v>
       </c>
-      <c r="G175">
+      <c r="F175">
         <v>200</v>
       </c>
       <c r="H175">
@@ -95798,7 +95798,7 @@
       <c r="C176">
         <v>60</v>
       </c>
-      <c r="G176">
+      <c r="F176">
         <v>150</v>
       </c>
       <c r="H176">
